--- a/Excel/MapNewAttr.xlsx
+++ b/Excel/MapNewAttr.xlsx
@@ -27,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>_Id</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Layer</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>long</t>
   </si>
   <si>
-    <t>地狱比奇</t>
-  </si>
-  <si>
     <t>1阶金</t>
   </si>
   <si>
@@ -125,9 +119,6 @@
     <t>1200000000000000000</t>
   </si>
   <si>
-    <t>地狱盟重</t>
-  </si>
-  <si>
     <t>2阶金</t>
   </si>
   <si>
@@ -140,9 +131,6 @@
     <t>1680000000000000000</t>
   </si>
   <si>
-    <t>地狱白日</t>
-  </si>
-  <si>
     <t>3阶金</t>
   </si>
   <si>
@@ -155,9 +143,6 @@
     <t>2350000000000000000</t>
   </si>
   <si>
-    <t>地狱封魔</t>
-  </si>
-  <si>
     <t>4阶金</t>
   </si>
   <si>
@@ -170,9 +155,6 @@
     <t>3290000000000000000</t>
   </si>
   <si>
-    <t>地狱苍月</t>
-  </si>
-  <si>
     <t>5阶金</t>
   </si>
   <si>
@@ -185,9 +167,6 @@
     <t>4600000000000000000</t>
   </si>
   <si>
-    <t>地狱魔龙</t>
-  </si>
-  <si>
     <t>6阶金</t>
   </si>
   <si>
@@ -198,9 +177,6 @@
   </si>
   <si>
     <t>6000000000000000000</t>
-  </si>
-  <si>
-    <t>地狱火龙</t>
   </si>
   <si>
     <t>7阶金</t>
@@ -1212,40 +1188,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:S40"/>
+  <dimension ref="C3:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="24.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.25" style="2" customWidth="1"/>
-    <col min="16" max="16" width="7.375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="16.375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="13" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.25" style="2" customWidth="1"/>
+    <col min="15" max="15" width="7.375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9.625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="16.375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="13" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" customHeight="1" spans="3:19">
+    <row r="3" customHeight="1" spans="3:18">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1258,7 +1233,7 @@
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -1294,25 +1269,22 @@
       <c r="R3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="4" t="s">
+    </row>
+    <row r="4" customHeight="1" spans="3:18">
+      <c r="C4" s="3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="3:19">
-      <c r="C4" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>19</v>
@@ -1321,7 +1293,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>8</v>
@@ -1342,92 +1314,86 @@
         <v>13</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="4" t="s">
+    </row>
+    <row r="5" customHeight="1" spans="3:18">
+      <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="3:19">
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="R5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="3:19">
+    </row>
+    <row r="6" customHeight="1" spans="3:18">
       <c r="C6" s="1">
         <v>1105</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1100</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="1">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1100</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>31</v>
+      <c r="J6" s="1">
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -1438,51 +1404,48 @@
       <c r="M6" s="1">
         <v>0</v>
       </c>
-      <c r="N6" s="1">
-        <v>0</v>
+      <c r="N6" s="5">
+        <v>20</v>
       </c>
       <c r="O6" s="5">
         <v>20</v>
       </c>
       <c r="P6" s="5">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>229385000</v>
       </c>
       <c r="R6" s="1">
         <v>229385000</v>
       </c>
-      <c r="S6" s="1">
-        <v>229385000</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="3:19">
+    </row>
+    <row r="7" customHeight="1" spans="3:18">
       <c r="C7" s="1">
         <f t="shared" ref="C7:C12" si="0">C6+5</f>
         <v>1110</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" ref="E7:E12" si="1">E6+50</f>
+        <v>1150</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="1">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" ref="F7:F12" si="1">F6+50</f>
-        <v>1150</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>36</v>
+      <c r="J7" s="1">
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -1493,51 +1456,48 @@
       <c r="M7" s="1">
         <v>0</v>
       </c>
-      <c r="N7" s="1">
-        <v>0</v>
+      <c r="N7" s="5">
+        <v>25</v>
       </c>
       <c r="O7" s="5">
         <v>25</v>
       </c>
       <c r="P7" s="5">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>239385000</v>
       </c>
       <c r="R7" s="1">
         <v>239385000</v>
       </c>
-      <c r="S7" s="1">
-        <v>239385000</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="3:19">
+    </row>
+    <row r="8" customHeight="1" spans="3:18">
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>1115</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>37</v>
+      <c r="D8" s="1">
+        <v>4</v>
       </c>
       <c r="E8" s="1">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>38</v>
+      <c r="F8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -1548,51 +1508,48 @@
       <c r="M8" s="1">
         <v>0</v>
       </c>
-      <c r="N8" s="1">
-        <v>0</v>
+      <c r="N8" s="5">
+        <v>30</v>
       </c>
       <c r="O8" s="5">
         <v>30</v>
       </c>
       <c r="P8" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>249385000</v>
       </c>
       <c r="R8" s="1">
         <v>249385000</v>
       </c>
-      <c r="S8" s="1">
-        <v>249385000</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="3:19">
+    </row>
+    <row r="9" customHeight="1" spans="3:18">
       <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>1120</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>42</v>
+      <c r="D9" s="1">
+        <v>4</v>
       </c>
       <c r="E9" s="1">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1">
         <f t="shared" si="1"/>
         <v>1250</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>43</v>
+      <c r="F9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -1603,51 +1560,48 @@
       <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="1">
-        <v>0</v>
+      <c r="N9" s="5">
+        <v>40</v>
       </c>
       <c r="O9" s="5">
         <v>40</v>
       </c>
       <c r="P9" s="5">
-        <v>40</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>259385000</v>
       </c>
       <c r="R9" s="1">
         <v>259385000</v>
       </c>
-      <c r="S9" s="1">
-        <v>259385000</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="3:19">
+    </row>
+    <row r="10" customHeight="1" spans="3:18">
       <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>1125</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>47</v>
+      <c r="D10" s="1">
+        <v>4</v>
       </c>
       <c r="E10" s="1">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1">
         <f t="shared" si="1"/>
         <v>1300</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>48</v>
+      <c r="F10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -1658,51 +1612,48 @@
       <c r="M10" s="1">
         <v>0</v>
       </c>
-      <c r="N10" s="1">
-        <v>0</v>
+      <c r="N10" s="5">
+        <v>45</v>
       </c>
       <c r="O10" s="5">
         <v>45</v>
       </c>
       <c r="P10" s="5">
-        <v>45</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>269385000</v>
       </c>
       <c r="R10" s="1">
         <v>269385000</v>
       </c>
-      <c r="S10" s="1">
-        <v>269385000</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="3:19">
+    </row>
+    <row r="11" customHeight="1" spans="3:18">
       <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>1130</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>52</v>
+      <c r="D11" s="1">
+        <v>4</v>
       </c>
       <c r="E11" s="1">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>53</v>
+      <c r="F11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
@@ -1713,51 +1664,48 @@
       <c r="M11" s="1">
         <v>0</v>
       </c>
-      <c r="N11" s="1">
-        <v>0</v>
+      <c r="N11" s="5">
+        <v>50</v>
       </c>
       <c r="O11" s="5">
         <v>50</v>
       </c>
       <c r="P11" s="5">
-        <v>50</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>300000000</v>
       </c>
       <c r="R11" s="1">
         <v>300000000</v>
       </c>
-      <c r="S11" s="1">
-        <v>300000000</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:19">
+    </row>
+    <row r="12" customHeight="1" spans="3:18">
       <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>1135</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>57</v>
+      <c r="D12" s="1">
+        <v>4</v>
       </c>
       <c r="E12" s="1">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1">
         <f t="shared" si="1"/>
         <v>1400</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>58</v>
+      <c r="F12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -1768,407 +1716,404 @@
       <c r="M12" s="1">
         <v>0</v>
       </c>
-      <c r="N12" s="1">
-        <v>0</v>
+      <c r="N12" s="5">
+        <v>55</v>
       </c>
       <c r="O12" s="5">
         <v>55</v>
       </c>
       <c r="P12" s="5">
-        <v>55</v>
-      </c>
-      <c r="Q12" s="5">
         <v>30</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>320000000</v>
       </c>
       <c r="R12" s="1">
         <v>320000000</v>
       </c>
-      <c r="S12" s="1">
-        <v>320000000</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="8:19">
+    </row>
+    <row r="13" customHeight="1" spans="7:18">
+      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
+      <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-    </row>
-    <row r="14" customHeight="1" spans="8:19">
+    </row>
+    <row r="14" customHeight="1" spans="7:18">
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
+      <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-    </row>
-    <row r="15" customHeight="1" spans="8:19">
+    </row>
+    <row r="15" customHeight="1" spans="7:18">
+      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
+      <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-    </row>
-    <row r="16" customHeight="1" spans="8:19">
+    </row>
+    <row r="16" customHeight="1" spans="7:18">
+      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
+      <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-    </row>
-    <row r="17" customHeight="1" spans="8:19">
+    </row>
+    <row r="17" customHeight="1" spans="7:18">
+      <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
+      <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-    </row>
-    <row r="18" customHeight="1" spans="8:19">
+    </row>
+    <row r="18" customHeight="1" spans="7:18">
+      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
+      <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-    </row>
-    <row r="19" customHeight="1" spans="8:19">
+    </row>
+    <row r="19" customHeight="1" spans="7:18">
+      <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
+      <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-    </row>
-    <row r="20" customHeight="1" spans="8:19">
+    </row>
+    <row r="20" customHeight="1" spans="7:18">
+      <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
+      <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-    </row>
-    <row r="21" customHeight="1" spans="8:19">
+    </row>
+    <row r="21" customHeight="1" spans="7:18">
+      <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
+      <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-    </row>
-    <row r="22" customHeight="1" spans="8:19">
+    </row>
+    <row r="22" customHeight="1" spans="7:18">
+      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
+      <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-    </row>
-    <row r="23" customHeight="1" spans="8:19">
+    </row>
+    <row r="23" customHeight="1" spans="7:18">
+      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
+      <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-    </row>
-    <row r="24" customHeight="1" spans="8:19">
+    </row>
+    <row r="24" customHeight="1" spans="7:18">
+      <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
+      <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-    </row>
-    <row r="25" customHeight="1" spans="8:19">
+    </row>
+    <row r="25" customHeight="1" spans="7:18">
+      <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
+      <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-    </row>
-    <row r="26" customHeight="1" spans="8:19">
+    </row>
+    <row r="26" customHeight="1" spans="7:18">
+      <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
+      <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-    </row>
-    <row r="27" customHeight="1" spans="8:19">
+    </row>
+    <row r="27" customHeight="1" spans="7:18">
+      <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
+      <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-    </row>
-    <row r="28" customHeight="1" spans="8:19">
+    </row>
+    <row r="28" customHeight="1" spans="7:18">
+      <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
+      <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-    </row>
-    <row r="29" customHeight="1" spans="8:19">
+    </row>
+    <row r="29" customHeight="1" spans="7:18">
+      <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
+      <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-    </row>
-    <row r="30" customHeight="1" spans="8:19">
+    </row>
+    <row r="30" customHeight="1" spans="7:18">
+      <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
+      <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-    </row>
-    <row r="31" customHeight="1" spans="8:19">
+    </row>
+    <row r="31" customHeight="1" spans="7:18">
+      <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
+      <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-    </row>
-    <row r="32" customHeight="1" spans="8:19">
+    </row>
+    <row r="32" customHeight="1" spans="7:18">
+      <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
+      <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-    </row>
-    <row r="33" customHeight="1" spans="8:19">
+    </row>
+    <row r="33" customHeight="1" spans="7:18">
+      <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
+      <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-    </row>
-    <row r="34" customHeight="1" spans="8:19">
+    </row>
+    <row r="34" customHeight="1" spans="7:18">
+      <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
+      <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-    </row>
-    <row r="35" customHeight="1" spans="8:19">
+    </row>
+    <row r="35" customHeight="1" spans="7:18">
+      <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
+      <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-    </row>
-    <row r="36" customHeight="1" spans="8:19">
+    </row>
+    <row r="36" customHeight="1" spans="7:18">
+      <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
+      <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-    </row>
-    <row r="37" customHeight="1" spans="8:19">
+    </row>
+    <row r="37" customHeight="1" spans="7:18">
+      <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
+      <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-    </row>
-    <row r="38" customHeight="1" spans="8:19">
+    </row>
+    <row r="38" customHeight="1" spans="7:18">
+      <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
+      <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-    </row>
-    <row r="39" customHeight="1" spans="8:19">
+    </row>
+    <row r="39" customHeight="1" spans="7:18">
+      <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
+      <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-    </row>
-    <row r="40" customHeight="1" spans="8:19">
+    </row>
+    <row r="40" customHeight="1" spans="7:18">
+      <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
+      <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="O5 O3:O4 P3:P5 Q3:Q5 H3:J5 K3:N5" errorStyle="warning">
-      <formula1>COUNTIF($A:$A,H3)&lt;2</formula1>
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C1048576" errorStyle="warning">
+      <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C12 C3:C6 C7:C11 C13:C1048576" errorStyle="warning">
-      <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="G3:P5" errorStyle="warning">
+      <formula1>COUNTIF($A:$A,G3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
